--- a/data/Input/ResponsesTest.xlsx
+++ b/data/Input/ResponsesTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA601A-1004-A64B-B6D5-9088A9C70FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29316257-46C3-DC45-A1A6-7994B3F92F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>nicholas@cs.unc.edu</t>
   </si>
   <si>
-    <t>M/W schedule [8:05 - 9:15 a.m.]</t>
-  </si>
-  <si>
     <t>M/W schedule [10:10 - 11:25 a.m.]</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>M/W schedule [4:40 - 5:55 p.m.]</t>
+  </si>
+  <si>
+    <t>M/W schedule [8:00 - 9:15 a.m.]</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,19 +1184,19 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
-      </c>
-      <c r="U1" t="s">
-        <v>77</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
